--- a/Perceptual_Only/Eye_Tracker/LookTime/500ms/Tadpole_ET_summary_Perceptual_500ms.xlsx
+++ b/Perceptual_Only/Eye_Tracker/LookTime/500ms/Tadpole_ET_summary_Perceptual_500ms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="0-All" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9258" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9986" uniqueCount="112">
   <si>
     <t>Fixation Duration_apple_strawberry_a.BMP_correct_Sum</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>P010</t>
+  </si>
+  <si>
+    <t>P001</t>
   </si>
 </sst>
 </file>
@@ -695,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AO26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3921,6 +3924,253 @@
       </c>
       <c r="AO26">
         <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28">
+        <v>0.08</v>
+      </c>
+      <c r="C28">
+        <v>0.44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>1.9</v>
+      </c>
+      <c r="F28">
+        <v>0.8</v>
+      </c>
+      <c r="G28">
+        <v>0.43</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>0.45</v>
+      </c>
+      <c r="J28">
+        <v>1.95</v>
+      </c>
+      <c r="K28">
+        <v>0.17</v>
+      </c>
+      <c r="L28">
+        <v>0.83</v>
+      </c>
+      <c r="M28">
+        <v>5.37</v>
+      </c>
+      <c r="N28">
+        <v>1.62</v>
+      </c>
+      <c r="O28">
+        <v>0.23</v>
+      </c>
+      <c r="P28">
+        <v>1.34</v>
+      </c>
+      <c r="Q28">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R28">
+        <v>0.83</v>
+      </c>
+      <c r="S28">
+        <v>0.27</v>
+      </c>
+      <c r="T28">
+        <v>0.73</v>
+      </c>
+      <c r="U28">
+        <v>0.43</v>
+      </c>
+      <c r="V28">
+        <v>1.36</v>
+      </c>
+      <c r="W28">
+        <v>1.03</v>
+      </c>
+      <c r="X28">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Y28">
+        <v>1.44</v>
+      </c>
+      <c r="Z28">
+        <v>1.3</v>
+      </c>
+      <c r="AA28">
+        <v>0.6</v>
+      </c>
+      <c r="AB28">
+        <v>1.59</v>
+      </c>
+      <c r="AC28">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AD28">
+        <v>0.47</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28">
+        <v>4.91</v>
+      </c>
+      <c r="AG28">
+        <v>2.6</v>
+      </c>
+      <c r="AH28">
+        <v>1.08</v>
+      </c>
+      <c r="AI28">
+        <v>0.99</v>
+      </c>
+      <c r="AJ28">
+        <v>1.31</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28">
+        <v>1.85</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AO28">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -3930,10 +4180,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AO26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7155,6 +7405,253 @@
         <v>41</v>
       </c>
       <c r="AO26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28">
+        <v>0.33</v>
+      </c>
+      <c r="M28">
+        <v>0.17</v>
+      </c>
+      <c r="N28">
+        <v>0.31</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28">
+        <v>0.5</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28">
+        <v>0.01</v>
+      </c>
+      <c r="AM28">
+        <v>0.49</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7165,10 +7662,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10390,6 +10887,253 @@
         <v>41</v>
       </c>
       <c r="AO26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28">
+        <v>0.5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28">
+        <v>0.5</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM28">
+        <v>0.5</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -10400,10 +11144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AO26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13625,6 +14369,253 @@
         <v>41</v>
       </c>
       <c r="AO26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>0.17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28">
+        <v>0.11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28">
+        <v>0.34</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28">
+        <v>0.05</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28">
+        <v>0.03</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -13635,10 +14626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AO26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16860,6 +17851,253 @@
         <v>41</v>
       </c>
       <c r="AO26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>0.02</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>0.03</v>
+      </c>
+      <c r="F28">
+        <v>0.24</v>
+      </c>
+      <c r="G28">
+        <v>0.26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28">
+        <v>0.01</v>
+      </c>
+      <c r="K28">
+        <v>0.17</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>0.19</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28">
+        <v>0.27</v>
+      </c>
+      <c r="Q28">
+        <v>0.02</v>
+      </c>
+      <c r="R28">
+        <v>0.36</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28">
+        <v>0.09</v>
+      </c>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28">
+        <v>0.01</v>
+      </c>
+      <c r="X28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y28">
+        <v>0.22</v>
+      </c>
+      <c r="Z28">
+        <v>0.22</v>
+      </c>
+      <c r="AA28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28">
+        <v>0.5</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI28">
+        <v>0.38</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN28">
+        <v>0.12</v>
+      </c>
+      <c r="AO28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -16870,10 +18108,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AO26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20096,6 +21334,253 @@
       </c>
       <c r="AO26">
         <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>0.02</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0.2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>0.02</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>0.5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>0.48</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28">
+        <v>0.5</v>
+      </c>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28">
+        <v>0.5</v>
+      </c>
+      <c r="X28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28">
+        <v>0.5</v>
+      </c>
+      <c r="Z28">
+        <v>0.23</v>
+      </c>
+      <c r="AA28">
+        <v>0.27</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28">
+        <v>0.5</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG28">
+        <v>0.5</v>
+      </c>
+      <c r="AH28">
+        <v>0.24</v>
+      </c>
+      <c r="AI28">
+        <v>0.26</v>
+      </c>
+      <c r="AJ28">
+        <v>0.02</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28">
+        <v>0.49</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN28">
+        <v>0.5</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -20105,10 +21590,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AO26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23331,6 +24816,253 @@
       </c>
       <c r="AO26" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0.35</v>
+      </c>
+      <c r="G28">
+        <v>0.06</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28">
+        <v>0.43</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>0.5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28">
+        <v>0.22</v>
+      </c>
+      <c r="T28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U28">
+        <v>0.36</v>
+      </c>
+      <c r="V28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W28">
+        <v>0.22</v>
+      </c>
+      <c r="X28">
+        <v>0.1</v>
+      </c>
+      <c r="Y28">
+        <v>0.4</v>
+      </c>
+      <c r="Z28">
+        <v>0.5</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0.4</v>
+      </c>
+      <c r="AC28">
+        <v>0.1</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28">
+        <v>0.37</v>
+      </c>
+      <c r="AG28">
+        <v>0.13</v>
+      </c>
+      <c r="AH28">
+        <v>0.5</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28">
+        <v>0.21</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN28">
+        <v>0.3</v>
+      </c>
+      <c r="AO28">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -23340,10 +25072,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AO26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26566,6 +28298,253 @@
       </c>
       <c r="AO26" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>0.5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28">
+        <v>0.04</v>
+      </c>
+      <c r="P28">
+        <v>0.37</v>
+      </c>
+      <c r="Q28">
+        <v>0.13</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28">
+        <v>0.04</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V28">
+        <v>0.2</v>
+      </c>
+      <c r="W28">
+        <v>0.3</v>
+      </c>
+      <c r="X28">
+        <v>0.4</v>
+      </c>
+      <c r="Y28">
+        <v>0.1</v>
+      </c>
+      <c r="Z28">
+        <v>0.35</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28">
+        <v>0.27</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28">
+        <v>0.5</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH28">
+        <v>0.34</v>
+      </c>
+      <c r="AI28">
+        <v>0.16</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO28">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -26575,10 +28554,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AO26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29801,6 +31780,253 @@
       </c>
       <c r="AO26" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28">
+        <v>0.08</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>0.37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28">
+        <v>0.44</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>0.5</v>
+      </c>
+      <c r="N28">
+        <v>0.31</v>
+      </c>
+      <c r="O28">
+        <v>0.19</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+      <c r="W28" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28">
+        <v>0.22</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28">
+        <v>0.5</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28">
+        <v>0.5</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI28">
+        <v>0.2</v>
+      </c>
+      <c r="AJ28">
+        <v>0.32</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN28">
+        <v>0.23</v>
+      </c>
+      <c r="AO28">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -29810,10 +32036,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AO26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33035,6 +35261,253 @@
         <v>41</v>
       </c>
       <c r="AO26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>0.26</v>
+      </c>
+      <c r="N28">
+        <v>0.5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28">
+        <v>0.21</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28">
+        <v>0.32</v>
+      </c>
+      <c r="W28" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28">
+        <v>0.42</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28">
+        <v>0.5</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ28">
+        <v>0.5</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -33045,10 +35518,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:AO27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36273,6 +38746,253 @@
         <v>41</v>
       </c>
     </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" t="s">
+        <v>17</v>
+      </c>
+      <c r="T28" t="s">
+        <v>18</v>
+      </c>
+      <c r="U28" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>0.24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29">
+        <v>0.44</v>
+      </c>
+      <c r="N29">
+        <v>0.5</v>
+      </c>
+      <c r="O29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" t="s">
+        <v>41</v>
+      </c>
+      <c r="V29">
+        <v>0.06</v>
+      </c>
+      <c r="W29" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF29">
+        <v>0.5</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ29">
+        <v>0.47</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL29">
+        <v>0.44</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
